--- a/Extras/Notes/Calculations.xlsx
+++ b/Extras/Notes/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE\Projects\1016 Breadboard Power Supply\Extras\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A907D8FB-FDC9-4F79-A03D-B90C76A59F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C8410-CBE9-4316-A30C-8797BB538701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="23955" windowHeight="21255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23625" yWindow="15" windowWidth="14895" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
   <si>
     <t>1016 Breadboard Power Supply - Misc Calculations</t>
   </si>
@@ -135,16 +135,261 @@
   </si>
   <si>
     <t>Pindmax</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>R2 Calc</t>
+  </si>
+  <si>
+    <t>R2 User</t>
+  </si>
+  <si>
+    <t>Vout actual</t>
+  </si>
+  <si>
+    <t>MCU Voltage Regulator Soft Start</t>
+  </si>
+  <si>
+    <t>MCU Voltage Regulator Feedback</t>
+  </si>
+  <si>
+    <t>Tstartup</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Css Calc</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Css User</t>
+  </si>
+  <si>
+    <t>Tstartup Act</t>
+  </si>
+  <si>
+    <t>Idiscg</t>
+  </si>
+  <si>
+    <t>Voutmax</t>
+  </si>
+  <si>
+    <t>Rpgdisc Calc</t>
+  </si>
+  <si>
+    <t>Rpgdisc User</t>
+  </si>
+  <si>
+    <t>Prdisc</t>
+  </si>
+  <si>
+    <t>Rail Power Regulator FB Resistors</t>
+  </si>
+  <si>
+    <t>Vout2</t>
+  </si>
+  <si>
+    <t>R2 Dlt Calc</t>
+  </si>
+  <si>
+    <t>Vout Actual</t>
+  </si>
+  <si>
+    <t>Regulator Power Dissipation</t>
+  </si>
+  <si>
+    <t>Iout</t>
+  </si>
+  <si>
+    <t>Pout</t>
+  </si>
+  <si>
+    <t>Reg Eff</t>
+  </si>
+  <si>
+    <t>Preg</t>
+  </si>
+  <si>
+    <t>LED Indicators</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>MCU Voltage Regulator Disch Res</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Wurth PN</t>
+  </si>
+  <si>
+    <t>Rel Sen</t>
+  </si>
+  <si>
+    <t>mcd@20mA</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Target λ</t>
+  </si>
+  <si>
+    <t>Target I</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Target mcd</t>
+  </si>
+  <si>
+    <t>mcd</t>
+  </si>
+  <si>
+    <t>Target Rel</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Need mcd</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>150060AS75003</t>
+  </si>
+  <si>
+    <t>Pdr</t>
+  </si>
+  <si>
+    <t>150060RS75003</t>
+  </si>
+  <si>
+    <t>150060YS75003</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>XL-1608SURC-06FJ</t>
+  </si>
+  <si>
+    <t>XL-1608UOC-06FJ</t>
+  </si>
+  <si>
+    <t>XL-1608UYC-06FJ</t>
+  </si>
+  <si>
+    <t>XL-1608UGC-06A</t>
+  </si>
+  <si>
+    <t>150060VS75003</t>
+  </si>
+  <si>
+    <t>Rf User</t>
+  </si>
+  <si>
+    <t>AC0603FR-07365RL</t>
+  </si>
+  <si>
+    <t>AC0603FR-07210RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07402RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07887RL</t>
+  </si>
+  <si>
+    <t>C227839</t>
+  </si>
+  <si>
+    <t>C185331</t>
+  </si>
+  <si>
+    <t>C273768</t>
+  </si>
+  <si>
+    <t>C227706</t>
+  </si>
+  <si>
+    <t>Distance from Rail Pins to Board Edge</t>
+  </si>
+  <si>
+    <t>Closest Pin to BB Edge</t>
+  </si>
+  <si>
+    <t>mil</t>
+  </si>
+  <si>
+    <t>BB Edge to Housing Clearance</t>
+  </si>
+  <si>
+    <t>Housing Thickness</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Housing to PCB Clearance</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +420,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,12 +455,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="48" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,24 +749,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -510,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -521,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -532,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -543,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -553,13 +826,42 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="3">
+        <v>525</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -569,8 +871,35 @@
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="8">
+        <v>220000</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -580,8 +909,53 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="3">
+        <v>80</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="3">
+        <f>(N12*N14)*(N13/100)</f>
+        <v>28</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="3">
+        <v>50</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -592,19 +966,104 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <f>F11/(F12/0.8-1)</f>
+        <v>32000.000000000007</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="7">
+        <f>J11/(J12/0.8-1)</f>
+        <v>41904.761904761908</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>1910</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8">
+        <v>31600</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8">
+        <v>42200</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,8 +1074,74 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3">
+        <f>0.8*((F11/F15)+1)</f>
+        <v>3.3316455696202532</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="3">
+        <f>0.8*((J11/J15)+1)</f>
+        <v>4.9706161137440761</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>625</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>530</v>
+      </c>
+      <c r="T17" s="3">
+        <f>$P$12/R17</f>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="U17" s="11">
+        <f>(T17/S17)*0.02</f>
+        <v>3.5220125786163525E-3</v>
+      </c>
+      <c r="V17" s="12">
+        <f>($N$8-P17)/U17</f>
+        <v>369.10714285714278</v>
+      </c>
+      <c r="W17" s="4">
+        <f>U17^2*V17</f>
+        <v>4.5786163522012575E-3</v>
+      </c>
+      <c r="X17" s="3">
+        <v>365</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -627,8 +1152,102 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>605</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="3">
+        <v>350</v>
+      </c>
+      <c r="T18" s="3">
+        <f>$P$12/R18</f>
+        <v>56</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" ref="U18:U21" si="0">(T18/S18)*0.02</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" ref="V18:V21" si="1">($N$8-P18)/U18</f>
+        <v>406.24999999999994</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" ref="W18:W21" si="2">U18^2*V18</f>
+        <v>4.1599999999999996E-3</v>
+      </c>
+      <c r="X18" s="3">
+        <v>402</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="M19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>590</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S19" s="3">
+        <v>550</v>
+      </c>
+      <c r="T19" s="3">
+        <f>$P$12/R19</f>
+        <v>40</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4545454545454545E-3</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" si="1"/>
+        <v>893.74999999999989</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8909090909090902E-3</v>
+      </c>
+      <c r="X19" s="3">
+        <v>887</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -639,8 +1258,66 @@
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>570</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <f>$P$12/R20</f>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2222222222222227E-3</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" si="1"/>
+        <v>208.92857142857139</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="2"/>
+        <v>8.0888888888888885E-3</v>
+      </c>
+      <c r="X20" s="3">
+        <v>210</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -651,8 +1328,20 @@
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="11"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -663,8 +1352,18 @@
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="3">
+        <f>J11/(J20/0.8-1)</f>
+        <v>70400.000000000015</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -675,114 +1374,421 @@
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6">
+        <f>F21*(0.0000025/1.25)</f>
+        <v>2.0000000000000005E-9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3.3000000000000002E-9</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="3">
+        <f>J22-J15</f>
+        <v>28200.000000000015</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>625</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>450</v>
+      </c>
+      <c r="T24" s="3">
+        <f>$P$12/R24</f>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="U24" s="11">
+        <f>MIN((T24/S24)*0.02,0.02)</f>
+        <v>4.1481481481481491E-3</v>
+      </c>
+      <c r="V24" s="12">
+        <f>($N$8-P24)/U24</f>
+        <v>313.39285714285705</v>
+      </c>
+      <c r="W24" s="4">
+        <f>U24^2*V24</f>
+        <v>5.3925925925925938E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="8">
+        <v>28000</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>605</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="3">
+        <v>450</v>
+      </c>
+      <c r="T25" s="3">
+        <f>$P$12/R25</f>
+        <v>56</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" ref="U25:U28" si="3">MIN((T25/S25)*0.02,0.02)</f>
+        <v>2.488888888888889E-3</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" ref="V25:V28" si="4">($N$8-P25)/U25</f>
+        <v>482.142857142857</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" ref="W25:W28" si="5">U25^2*V25</f>
+        <v>2.9866666666666661E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="5">
+        <f>F24*1.25/0.0000025</f>
+        <v>1.65E-3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>590</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S26" s="3">
+        <v>450</v>
+      </c>
+      <c r="T26" s="3">
+        <f>$P$12/R26</f>
+        <v>40</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="3"/>
+        <v>1.7777777777777779E-3</v>
+      </c>
+      <c r="V26" s="12">
+        <f t="shared" si="4"/>
+        <v>674.99999999999977</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="5"/>
+        <v>2.133333333333333E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="3">
+        <f>0.8*((J11/(J15+J25))+1)</f>
+        <v>3.3071225071225072</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>530</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="S27" s="3">
+        <v>350</v>
+      </c>
+      <c r="T27" s="3">
+        <f>$P$12/R27</f>
+        <v>40</v>
+      </c>
+      <c r="U27" s="11">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142859E-3</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" si="4"/>
+        <v>262.49999999999983</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="5"/>
+        <v>1.3714285714285708E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="3">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="U28" s="11"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="3">
         <f>(B3-B27)/B28</f>
-        <v>3799.9999999999995</v>
+        <v>2000</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="3">
-        <v>3740</v>
+      <c r="B31" s="8">
+        <v>2000</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="4">
         <f>(B3-B27)/B31</f>
-        <v>1.016042780748663E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="3">
+        <f>F31/F30</f>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="4">
         <f>(B4-B27)/B31</f>
-        <v>3.6898395721925137E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1600</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="4">
         <f>B33^2*B31</f>
-        <v>3.8609625668449186E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="3">
+        <f>F30^2*F34</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="4">
         <f>B34^2*B31</f>
-        <v>5.0919786096256692E-2</v>
+        <v>0.1125</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -793,11 +1799,29 @@
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="3">
+        <v>350</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="3">
+        <v>150</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -807,8 +1831,23 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="3">
+        <v>60</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -817,6 +1856,95 @@
         <v>0.20325015474727687</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="3">
+        <v>40</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="3">
+        <f>SUM(G41:G44)</f>
+        <v>600</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B48*B49</f>
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="3">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="3">
+        <f>(1-(B51/100))*B50</f>
+        <v>0.69999999999999951</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>16</v>
       </c>
     </row>
